--- a/data/trans_bre/P12B1_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_3_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>9,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,67</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>144,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>24,99%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>53,84%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>109,26%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 35,45</t>
+          <t>2,46; 18,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 21,02</t>
+          <t>-3,47; 8,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 24,41</t>
+          <t>-0,15; 10,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 30,3</t>
+          <t>-1,68; 18,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 62,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 33,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 38,43</t>
+          <t>13,05; 492,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 61,08</t>
+          <t>-27,05; 118,65</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-5,74; 144,19</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-41,22; 489,0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,51</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,89</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,36</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>55,62%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-7,3%</t>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>33,25%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14,3%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 32,74</t>
+          <t>-3,34; 5,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 41,91</t>
+          <t>-2,25; 2,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 35,22</t>
+          <t>-1,11; 4,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 21,5</t>
+          <t>-2,46; 3,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 90,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 179,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 123,65</t>
+          <t>-55,79; 166,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,13; 56,79</t>
+          <t>-52,93; 111,7</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-29,25; 176,72</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-45,84; 158,28</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,34</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,2%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>126,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,4%</t>
+          <t>50,04%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>42,16%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-9,8%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-29,76; 37,84</t>
+          <t>-0,54; 4,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-38,28; 18,71</t>
+          <t>-0,97; 3,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 32,12</t>
+          <t>-0,88; 3,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-45,76; 42,55</t>
+          <t>-3,31; 2,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,6; 98,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,02; 43,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 82,21</t>
+          <t>-39,19; 738,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-63,97; 190,49</t>
+          <t>-37,93; 274,61</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-29,76; 201,81</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-70,32; 134,36</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,14</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,8</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,25</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>113,44%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>77,3%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 27,77</t>
+          <t>-4,53; 4,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 26,88</t>
+          <t>0,86; 10,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 28,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 24,91</t>
+          <t>-1,17; 8,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 58,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 59,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 63,86</t>
+          <t>-43,81; 93,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 53,17</t>
+          <t>4,31; 301,4</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-22,58; 310,93</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,92</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>36,61%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>46,19%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>54,21%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>56,55%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 4,2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 4,05</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 4,62</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 5,23</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-12,85; 99,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6,51; 110,58</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12,75; 116,52</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 143,09</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P12B1_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_3_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>9,6</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,49</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,06</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>144,93%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>24,99%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>53,84%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>109,26%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>10.51435105767165</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.866771548400381</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.415800069437869</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.542971847455714</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>1.618600037981436</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2725979487802418</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.5378256201845246</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.9836586572047372</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,46; 18,53</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,47; 8,89</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 10,98</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,68; 18,22</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>13,05; 492,27</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-27,05; 118,65</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-5,74; 144,19</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-41,22; 489,0</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.181554617262549</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.549063783467787</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.176001358786014</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.073996047904945</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>0.2049670486836302</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2700359235749829</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.03518640276836957</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.4544150237139696</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>20.21267806053496</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.014491226100041</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.7863095070915</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>16.94987235561779</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>5.369716778443822</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.233487508001961</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.469998329827973</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>4.679047374557596</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>6,2%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,18%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>33,25%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>14,3%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 5,24</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,25; 2,26</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 4,57</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,46; 3,95</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-55,79; 166,4</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-52,93; 111,7</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-29,25; 176,72</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-45,84; 158,28</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.05760509633372587</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.2215660562180664</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.011988571440443</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.6387622533327149</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.01294844208530434</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.07316084185317352</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.2950318326014753</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1673356414418569</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>126,46%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>50,04%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>42,16%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-9,8%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.173661961702092</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.975849004472658</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.150030747976875</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.379641670192918</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.547275814207682</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5155823038340259</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3036468506163583</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.4720554597330934</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 4,57</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 3,38</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,88; 3,2</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 2,08</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-39,19; 738,79</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-37,93; 274,61</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-29,76; 201,81</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-70,32; 134,36</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.883566919696303</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.319799608048276</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.069845002669591</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.806062453462064</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>1.421336958710645</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.160809428384348</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.640787503657605</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.605697463029186</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,45</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>12,37%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>113,44%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>77,3%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.927275879357386</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.10572110121367</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.157090235607102</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.2801834922620535</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>1.288446266942435</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.4629823361252928</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.4381795795888887</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.09629070248332217</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,53; 4,47</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 10,04</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,17; 8,64</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-43,81; 93,88</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4,31; 301,4</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-22,58; 310,93</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.3808752777488634</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.166107878183178</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.7767777192582443</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.187759789426039</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.4282167170912476</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3846757374842799</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2793885150625106</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.6933826460726772</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.348047224831038</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.365000839187851</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.313005687044754</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.059389461269335</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>7.892920419063194</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.645762083237936</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.092054611285374</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.364924641583378</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,51</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>36,61%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>46,19%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>54,21%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>56,55%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 4,2</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 4,05</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 4,62</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 5,23</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-12,85; 99,12</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>6,51; 110,58</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>12,75; 116,52</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>1,46; 143,09</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.791610057316976</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.312799875120121</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.4663790893071</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.98283167471157</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.7524207824312467</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3024280164094679</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.5390558401501836</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.4915383302278636</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.5309284596814581</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.5396803957019598</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.7346653688249516</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.4165225264877018</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>0.08965213610956931</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1089662329652304</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1250606564420533</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1223178864263412</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.287512401591875</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.218264867551272</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.506602739991505</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.189519454170713</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>1.976600167804226</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9537334302487914</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.146363821324203</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.622866265961475</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
